--- a/src/main/resources/static/xls/样例订单.xlsx
+++ b/src/main/resources/static/xls/样例订单.xlsx
@@ -16,63 +16,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>滚轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米思米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLB50-25-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询货期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导向轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSFJ15-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱安特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSF8V-10-20-M30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>直线轴承</t>
-  </si>
-  <si>
-    <t>LM-6-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LM-8-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LM-8s-C</t>
-  </si>
-  <si>
-    <t>LM-10-C</t>
-  </si>
-  <si>
-    <t>LM-12-C</t>
-  </si>
-  <si>
-    <t>LM-13-C</t>
-  </si>
-  <si>
-    <t>LM-16-C</t>
-  </si>
-  <si>
-    <t>LM-20-C</t>
-  </si>
-  <si>
-    <t>LM-25-C</t>
-  </si>
-  <si>
-    <t>LM-30-C</t>
-  </si>
-  <si>
-    <t>LM-35-C</t>
-  </si>
-  <si>
-    <t>LM-40-C</t>
-  </si>
-  <si>
-    <t>LM-50-C</t>
-  </si>
-  <si>
-    <t>产品品类(不超过128字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品型号(不超过128字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定交货日期（使用日期格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品品类(必填项)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌(必填项)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号(必填项)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,11 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,21 +107,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -162,23 +157,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,215 +468,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>42961</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
         <v>100</v>
       </c>
+      <c r="F4" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>42962</v>
-      </c>
-      <c r="D3" s="4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
         <v>100</v>
       </c>
+      <c r="F5" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>42963</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>42964</v>
-      </c>
-      <c r="D5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>42965</v>
-      </c>
-      <c r="D6" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>42966</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>42967</v>
-      </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>42968</v>
-      </c>
-      <c r="D9" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>42969</v>
-      </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
-        <v>42970</v>
-      </c>
-      <c r="D11" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>42971</v>
-      </c>
-      <c r="D12" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42972</v>
-      </c>
-      <c r="D13" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3">
-        <v>42973</v>
-      </c>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
